--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H2">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I2">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J2">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>47.79323733405</v>
+        <v>52.79360103127067</v>
       </c>
       <c r="R2">
-        <v>430.13913600645</v>
+        <v>475.142409281436</v>
       </c>
       <c r="S2">
-        <v>0.03274282966846356</v>
+        <v>0.0255317238721032</v>
       </c>
       <c r="T2">
-        <v>0.03274282966846357</v>
+        <v>0.0255317238721032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H3">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I3">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J3">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
-        <v>344.81122883215</v>
+        <v>344.768744514295</v>
       </c>
       <c r="R3">
-        <v>3103.30105948935</v>
+        <v>3102.918700628655</v>
       </c>
       <c r="S3">
-        <v>0.2362278841776876</v>
+        <v>0.1667349870575557</v>
       </c>
       <c r="T3">
-        <v>0.2362278841776876</v>
+        <v>0.1667349870575557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H4">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I4">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J4">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>136.6666921975833</v>
+        <v>231.5807993116574</v>
       </c>
       <c r="R4">
-        <v>1230.00022977825</v>
+        <v>2084.227193804916</v>
       </c>
       <c r="S4">
-        <v>0.09362944369515908</v>
+        <v>0.1119957136207474</v>
       </c>
       <c r="T4">
-        <v>0.09362944369515908</v>
+        <v>0.1119957136207474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H5">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I5">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J5">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>0.5188385023933334</v>
+        <v>9.153626445538334</v>
       </c>
       <c r="R5">
-        <v>4.66954652154</v>
+        <v>82.38263800984501</v>
       </c>
       <c r="S5">
-        <v>0.0003554528141830324</v>
+        <v>0.004426821778977278</v>
       </c>
       <c r="T5">
-        <v>0.0003554528141830324</v>
+        <v>0.004426821778977278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.650088</v>
       </c>
       <c r="I6">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J6">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N6">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O6">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P6">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q6">
-        <v>64.18939361484</v>
+        <v>70.91394120609066</v>
       </c>
       <c r="R6">
-        <v>577.70454253356</v>
+        <v>638.225470854816</v>
       </c>
       <c r="S6">
-        <v>0.04397572750643729</v>
+        <v>0.03429497382616581</v>
       </c>
       <c r="T6">
-        <v>0.04397572750643731</v>
+        <v>0.03429497382616581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.650088</v>
       </c>
       <c r="I7">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J7">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q7">
         <v>463.10367166852</v>
@@ -883,10 +883,10 @@
         <v>4167.93304501668</v>
       </c>
       <c r="S7">
-        <v>0.317269251595129</v>
+        <v>0.2239634129559434</v>
       </c>
       <c r="T7">
-        <v>0.3172692515951291</v>
+        <v>0.2239634129559435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.650088</v>
       </c>
       <c r="I8">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J8">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N8">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q8">
-        <v>183.5521632107333</v>
+        <v>311.0662441290773</v>
       </c>
       <c r="R8">
-        <v>1651.9694688966</v>
+        <v>2799.596197161696</v>
       </c>
       <c r="S8">
-        <v>0.1257503686825011</v>
+        <v>0.150435986481233</v>
       </c>
       <c r="T8">
-        <v>0.1257503686825011</v>
+        <v>0.150435986481233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>33.650088</v>
       </c>
       <c r="I9">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J9">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N9">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P9">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q9">
-        <v>0.6968335001013333</v>
+        <v>12.29542434881333</v>
       </c>
       <c r="R9">
-        <v>6.271501500912</v>
+        <v>110.65881913932</v>
       </c>
       <c r="S9">
-        <v>0.0004773960056654691</v>
+        <v>0.005946239188690567</v>
       </c>
       <c r="T9">
-        <v>0.0004773960056654691</v>
+        <v>0.005946239188690567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H10">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I10">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J10">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N10">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O10">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P10">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q10">
-        <v>19.695282191065</v>
+        <v>47.31753122741955</v>
       </c>
       <c r="R10">
-        <v>177.257539719585</v>
+        <v>425.857781046776</v>
       </c>
       <c r="S10">
-        <v>0.01349310710105266</v>
+        <v>0.02288341992228408</v>
       </c>
       <c r="T10">
-        <v>0.01349310710105266</v>
+        <v>0.02288341992228408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H11">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I11">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J11">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>123.860985</v>
       </c>
       <c r="O11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P11">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q11">
-        <v>142.0944642655283</v>
+        <v>309.0072568668033</v>
       </c>
       <c r="R11">
-        <v>1278.850178389755</v>
+        <v>2781.06531180123</v>
       </c>
       <c r="S11">
-        <v>0.09734797431190288</v>
+        <v>0.1494402314425605</v>
       </c>
       <c r="T11">
-        <v>0.09734797431190288</v>
+        <v>0.1494402314425605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H12">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I12">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J12">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N12">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P12">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q12">
-        <v>56.31945478263611</v>
+        <v>207.5598460618285</v>
       </c>
       <c r="R12">
-        <v>506.875093043725</v>
+        <v>1868.038614556456</v>
       </c>
       <c r="S12">
-        <v>0.03858408464945733</v>
+        <v>0.1003788446529332</v>
       </c>
       <c r="T12">
-        <v>0.03858408464945733</v>
+        <v>0.1003788446529332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H13">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I13">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J13">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N13">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P13">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q13">
-        <v>0.2138099715824445</v>
+        <v>8.204157259974444</v>
       </c>
       <c r="R13">
-        <v>1.924289744242</v>
+        <v>73.83741533977</v>
       </c>
       <c r="S13">
-        <v>0.0001464797923608196</v>
+        <v>0.003967645200805821</v>
       </c>
       <c r="T13">
-        <v>0.0001464797923608196</v>
+        <v>0.003967645200805821</v>
       </c>
     </row>
   </sheetData>
